--- a/www/terminologies/ValueSet-jdv-mesure-type-verre-prescrit-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-type-verre-prescrit-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152059</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:20:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-mesure-type-verre-prescrit-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-mesure-type-verre-prescrit-cisis.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152059</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:20:59+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,10 +101,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>C80261</t>
-  </si>
-  <si>
-    <t>Monture</t>
+    <t>GEN-292</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>MED-888</t>
+  </si>
+  <si>
+    <t>Intolérance aux verres progressifs</t>
   </si>
   <si>
     <t/>
@@ -113,21 +119,6 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-ncit</t>
-  </si>
-  <si>
-    <t>GEN-292</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
-    <t>MED-888</t>
-  </si>
-  <si>
-    <t>Intolérance aux verres progressifs</t>
-  </si>
-  <si>
     <t>https://smt.esante.gouv.fr/fhir/CodeSystem/terminologie-cisis</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Q021002</t>
+  </si>
+  <si>
+    <t>MONTURES DE LUNETTES</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/terminologie-emdn</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,15 +441,23 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -479,34 +487,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +524,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,33 +544,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>42</v>
       </c>
     </row>
